--- a/dataAnalysis/csvFiles/specialGestures/ich_will_nach_hause_geste/ichwillnachhausegeste__2.xlsx
+++ b/dataAnalysis/csvFiles/specialGestures/ich_will_nach_hause_geste/ichwillnachhausegeste__2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>timestamp</t>
   </si>
@@ -41,6 +41,9 @@
   </si>
   <si>
     <t>d|V|</t>
+  </si>
+  <si>
+    <t>+</t>
   </si>
 </sst>
 </file>
@@ -1842,11 +1845,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="93963776"/>
-        <c:axId val="93965312"/>
+        <c:axId val="113212800"/>
+        <c:axId val="113906816"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="93963776"/>
+        <c:axId val="113212800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1855,7 +1858,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="93965312"/>
+        <c:crossAx val="113906816"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1863,7 +1866,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="93965312"/>
+        <c:axId val="113906816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1874,7 +1877,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="93963776"/>
+        <c:crossAx val="113212800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -17081,8 +17084,8 @@
       <c r="C513">
         <v>8.0630000000000006</v>
       </c>
-      <c r="D513">
-        <v>4.9119999999999999</v>
+      <c r="D513" t="s">
+        <v>9</v>
       </c>
       <c r="E513">
         <v>10</v>
